--- a/src/test/resources/Test Data/PracticeTestData.xlsx
+++ b/src/test/resources/Test Data/PracticeTestData.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4790" windowHeight="2270" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
     <sheet name="LogIn" sheetId="2" r:id="rId2"/>
     <sheet name="Amazon" sheetId="3" r:id="rId3"/>
+    <sheet name="Insta" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:B6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Firstname</t>
   </si>
@@ -85,12 +87,18 @@
   </si>
   <si>
     <t>Shranay@190129</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,6 +151,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -190,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,13 +451,13 @@
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -488,18 +499,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -510,7 +521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,54 +549,54 @@
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -593,4 +604,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>